--- a/design/design.xlsx
+++ b/design/design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webstaff\Documents\t-kuni.github.io\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E888F6F5-3FE7-4B1D-8F36-94739EBB5F23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC10B5C-9B92-472F-A727-831DF3251E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7836" yWindow="336" windowWidth="21672" windowHeight="15900" activeTab="1" xr2:uid="{C54A1FC8-2C99-411E-9AF2-5443227C87F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{C54A1FC8-2C99-411E-9AF2-5443227C87F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ネットワーク表示" sheetId="1" r:id="rId1"/>
@@ -1183,6 +1183,1897 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4FC39AF-88B2-4807-904E-885F2C050199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9304020" y="4533900"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F6023-C0B3-460C-AFC0-FCEADA916E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10347960" y="3444240"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アプリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AB0F91-6115-4D9A-915D-072F1A16B660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10454640" y="5524500"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インフラ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063AFCFF-DBE1-46F2-8E15-052BF28D1762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="5570220"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サービス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2D05A4-903B-4293-8257-F980ECCAB4D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8313420" y="3360420"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>その他</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141D81BB-7D77-4DD3-906B-EEBFA469CDB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10728960" y="1851660"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フレーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65EC904-C982-4EB9-A552-80008F2A47E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12489180" y="3482340"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>言語</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE99B55D-7D10-4C5B-87FD-17CE0D1A74F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11452860" y="4617720"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>デザパタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0DA4E1-89FA-46A9-8716-3B69DD6A4D86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="1836420"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アーキテ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311588</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>189668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38932</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BCEC76-F81F-4921-940E-C3D47F9A8298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="6" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9028868" y="4075868"/>
+          <a:ext cx="397904" cy="580784"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265868</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>220148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38932</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>206572</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BD9649-28E8-484D-A3C9-4D035EED08A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8983148" y="5249348"/>
+          <a:ext cx="443624" cy="443624"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631628</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>220148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>518992</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0641B58F-DF79-436D-98FE-C21D390F1FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="5"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10019468" y="5249348"/>
+          <a:ext cx="557924" cy="397904"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631628</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412312</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BFA040-42E4-4EE6-A53E-A80C2F17AA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="7"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10019468" y="4159688"/>
+          <a:ext cx="451244" cy="496964"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>334448</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176092</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5787EEFF-1F79-45BF-AD6D-9EEDCB747867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="5"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11063408" y="4159688"/>
+          <a:ext cx="512204" cy="580784"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0FE7B0-C721-4B56-9548-5753A393F518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11186160" y="3863340"/>
+          <a:ext cx="1303020" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED78922-A269-4F1C-B541-E863B17D9A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10805160" y="2689860"/>
+          <a:ext cx="342900" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494468</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412312</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137992</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA44505-2CA0-4450-B170-A0264DD4818C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="10" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9211748" y="2551868"/>
+          <a:ext cx="1258964" cy="1015124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="楕円 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB383BE1-F4FE-4963-A3A2-9A218A567E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9555480" y="1965960"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DevOps</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="楕円 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844BC99C-AA1A-41E8-8CF7-6C8988DD3E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12618720" y="2476500"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OSS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9453F5D-8B1D-49F3-AD24-49602E9A770F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="34" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9974580" y="2804160"/>
+          <a:ext cx="792480" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="楕円 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2EA5D9-90BA-4325-84DD-5885E7246DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11689080" y="2385060"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テスト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="楕円 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E66B2E-3A0C-4661-99D9-81FAAE044616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10088880" y="1028700"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ML</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FB01A7-AC05-473A-9AD0-B50FAF34A7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="1242060"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エディタ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29648</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAF1CE0-B6B7-4EE8-BD61-2D4D91497469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="40" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10507980" y="1866900"/>
+          <a:ext cx="250628" cy="1593412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>334448</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137992</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E9A9E8-5115-40D9-8A78-3E08EF60D0DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11063408" y="2065020"/>
+          <a:ext cx="800932" cy="1501972"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>82988</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>412312</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77032</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B13ABB3-617D-44DC-83C9-EB509AFC570D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10811948" y="3100508"/>
+          <a:ext cx="999884" cy="862724"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>220148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>832</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286DC8B7-EFF2-49AF-BB06-CF85D11F51B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="35" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10934700" y="3191948"/>
+          <a:ext cx="1806772" cy="694252"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="楕円 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1187-01DE-4B73-A9A0-5DDB8EA07CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13792200" y="2819400"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Java</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="楕円 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF1B3F4-7E6A-4F50-A113-EAB8883F1095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13754100" y="3870960"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PHP</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="楕円 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857EBF47-C8AE-4754-94E1-7B2CDA654707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="4914900"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HTML/CSS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="楕円 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D3341C-034C-471D-BC1D-3927CEE8D2A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992100" y="5654040"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>JS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="楕円 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86DDD41-A564-4A4A-BEBC-D0A2FD801210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14157960" y="5897880"/>
+          <a:ext cx="838200" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>VBA</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -1499,7 +3390,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2248,7 +4139,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2521,6 +4412,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
